--- a/india/Takeda UAMS Success Stories_China&Japan_v1.0.xlsx
+++ b/india/Takeda UAMS Success Stories_China&Japan_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAFF42-F44E-494B-B555-96C3BA0A00F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28112D-85F4-44AE-B725-E6F8D4D976B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{68F3D7A6-4CDB-4692-90B7-DC0A58E18017}"/>
   </bookViews>
@@ -2023,12 +2023,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2037,6 +2031,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5145,22 +5145,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75">
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
     </row>
     <row r="2" spans="1:34" ht="78.75">
       <c r="A2" s="2" t="s">
@@ -7958,7 +7958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="47.25">
+    <row r="34" spans="1:34" ht="63">
       <c r="A34" s="6">
         <v>2419</v>
       </c>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="AH70" s="49"/>
     </row>
-    <row r="71" spans="1:34" ht="63">
+    <row r="71" spans="1:34" ht="78.75">
       <c r="A71" s="43">
         <v>2782</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="C77" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="55" t="s">
         <v>473</v>
       </c>
       <c r="E77" s="17" t="s">
@@ -11441,31 +11441,31 @@
       <c r="P77" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="Q77" s="55">
+      <c r="Q77" s="53">
         <v>0.3</v>
       </c>
-      <c r="R77" s="55">
+      <c r="R77" s="53">
         <v>3.6</v>
       </c>
-      <c r="S77" s="55">
-        <v>0</v>
-      </c>
-      <c r="T77" s="55">
+      <c r="S77" s="53">
+        <v>0</v>
+      </c>
+      <c r="T77" s="53">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U77" s="55">
-        <v>0</v>
-      </c>
-      <c r="V77" s="55">
-        <v>0</v>
-      </c>
-      <c r="W77" s="55">
-        <v>0</v>
-      </c>
-      <c r="X77" s="55">
+      <c r="U77" s="53">
+        <v>0</v>
+      </c>
+      <c r="V77" s="53">
+        <v>0</v>
+      </c>
+      <c r="W77" s="53">
+        <v>0</v>
+      </c>
+      <c r="X77" s="53">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Y77" s="55">
+      <c r="Y77" s="53">
         <v>3.48</v>
       </c>
       <c r="Z77" s="17"/>
@@ -11476,13 +11476,13 @@
       <c r="AC77" s="48">
         <v>43962</v>
       </c>
-      <c r="AD77" s="56"/>
-      <c r="AE77" s="56"/>
+      <c r="AD77" s="54"/>
+      <c r="AE77" s="54"/>
       <c r="AF77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG77" s="56"/>
-      <c r="AH77" s="56"/>
+      <c r="AG77" s="54"/>
+      <c r="AH77" s="54"/>
     </row>
     <row r="78" spans="1:34" ht="47.25">
       <c r="A78" s="43"/>
@@ -11492,7 +11492,7 @@
       <c r="C78" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="55" t="s">
         <v>473</v>
       </c>
       <c r="E78" s="17" t="s">
@@ -11527,44 +11527,38 @@
       <c r="P78" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q78" s="55">
+      <c r="Q78" s="53">
         <v>0.3</v>
       </c>
-      <c r="R78" s="55">
+      <c r="R78" s="53">
         <v>3.6</v>
       </c>
-      <c r="S78" s="55">
-        <v>0</v>
-      </c>
-      <c r="T78" s="55">
+      <c r="S78" s="53">
+        <v>0</v>
+      </c>
+      <c r="T78" s="53">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U78" s="55">
-        <v>0</v>
-      </c>
-      <c r="V78" s="55">
-        <v>0</v>
-      </c>
-      <c r="W78" s="55">
-        <v>0</v>
-      </c>
-      <c r="X78" s="55">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y78" s="55">
-        <v>3.36</v>
-      </c>
+      <c r="U78" s="53">
+        <v>0</v>
+      </c>
+      <c r="V78" s="53">
+        <v>0</v>
+      </c>
+      <c r="W78" s="53"/>
+      <c r="X78" s="53"/>
+      <c r="Y78" s="53"/>
       <c r="Z78" s="17"/>
       <c r="AA78" s="48"/>
       <c r="AB78" s="48"/>
       <c r="AC78" s="17"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
+      <c r="AD78" s="54"/>
+      <c r="AE78" s="54"/>
       <c r="AF78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG78" s="56"/>
-      <c r="AH78" s="56"/>
+      <c r="AG78" s="54"/>
+      <c r="AH78" s="54"/>
     </row>
     <row r="79" spans="1:34" ht="78.75">
       <c r="A79" s="43"/>
@@ -11609,26 +11603,26 @@
       <c r="P79" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="55"/>
-      <c r="W79" s="55"/>
-      <c r="X79" s="55"/>
-      <c r="Y79" s="55"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
       <c r="Z79" s="17"/>
       <c r="AA79" s="48"/>
       <c r="AB79" s="48"/>
       <c r="AC79" s="17"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
+      <c r="AD79" s="54"/>
+      <c r="AE79" s="54"/>
       <c r="AF79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
+      <c r="AG79" s="54"/>
+      <c r="AH79" s="54"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AH75" xr:uid="{1867DB7B-3F37-43F2-8567-F2660CE6E214}"/>
@@ -11643,15 +11637,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c0c2aef93cd9fd80bc533252d92f776">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c4e19019b73ad89000be1b562cf027d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -11789,6 +11774,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11796,14 +11790,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB041DD-F45E-4701-875E-AB6C5E01DB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05E8CE60-074A-48CA-81AB-9FD05ECEE7E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11817,6 +11803,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB041DD-F45E-4701-875E-AB6C5E01DB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
